--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il19-Il20ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il19-Il20ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,10 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Il19</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.09587233333333334</v>
+        <v>0.0621735</v>
       </c>
       <c r="H2">
-        <v>0.287617</v>
+        <v>0.124347</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.400116482236459</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3077956989247312</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -549,10 +552,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.02041766666666666</v>
+        <v>0.02041766666666667</v>
       </c>
       <c r="N2">
-        <v>0.06125299999999999</v>
+        <v>0.061253</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,16 +564,78 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.001957489344555555</v>
+        <v>0.0012694377985</v>
       </c>
       <c r="R2">
-        <v>0.017617404101</v>
+        <v>0.007616626791</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.400116482236459</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.3077956989247312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.09321499999999999</v>
+      </c>
+      <c r="H3">
+        <v>0.279645</v>
+      </c>
+      <c r="I3">
+        <v>0.5998835177635411</v>
+      </c>
+      <c r="J3">
+        <v>0.6922043010752689</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.02041766666666667</v>
+      </c>
+      <c r="N3">
+        <v>0.061253</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0.001903232798333333</v>
+      </c>
+      <c r="R3">
+        <v>0.017129095185</v>
+      </c>
+      <c r="S3">
+        <v>0.5998835177635411</v>
+      </c>
+      <c r="T3">
+        <v>0.6922043010752689</v>
       </c>
     </row>
   </sheetData>
